--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44939</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>43432</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43493</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>43612</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>44508</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44747</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45033</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45161</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43370</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43410</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43412</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43412</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43427</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43438</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43441</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43476</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43476</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43486</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43493</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43509</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43514</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43528</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43530</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43538</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43542</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43545</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43553</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43564</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43572</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43595</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43598</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43599</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43599</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43621</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43627</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43641</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43641</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43647</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43655</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43656</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43656</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43656</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43656</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43656</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43690</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43691</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43698</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43698</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43698</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43699</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43703</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43710</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43710</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43711</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43711</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43711</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43712</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43718</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43721</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43726</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43766</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43769</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43784</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43806</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43817</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43859</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43860</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43861</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43887</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43887</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43892</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43899</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43914</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>43938</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43938</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43938</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>43948</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>43948</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>43979</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>43979</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>43984</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44013</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44018</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44018</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44028</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44048</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44062</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>44075</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>44078</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44096</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44096</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44097</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44098</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44116</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44125</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44130</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44152</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44156</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44169</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44186</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44228</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44242</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44257</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44271</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>44280</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44299</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44301</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44314</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44326</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44327</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44327</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44343</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44357</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44357</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44358</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44377</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>44386</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44421</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44423</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44461</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44461</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44466</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44484</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44503</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44533</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44550</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44550</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44566</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44602</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44602</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44606</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44606</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44606</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44607</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44621</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44623</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44624</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44624</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44671</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44700</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44701</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44705</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44705</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44728</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44728</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44739</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44739</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44743</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44743</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44747</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44812</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44824</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44851</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44853</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44853</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44859</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44860</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44861</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44861</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44872</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>44872</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44875</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44880</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44888</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44888</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44890</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44890</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44895</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44900</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44904</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44904</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44907</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44923</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44938</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44950</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44957</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>44959</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44959</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>44959</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>44959</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44962</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>44964</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44965</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>44981</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44985</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44992</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45009</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45020</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45021</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45028</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45028</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45028</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45033</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45033</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45033</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45033</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45034</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45041</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>45041</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>45062</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>45062</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45068</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>45068</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45076</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45076</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45086</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45086</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45097</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45107</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45124</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45126</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45126</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45126</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45146</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45146</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45159</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45159</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45159</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45161</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45167</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>45167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>45167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44939</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>43432</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43493</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>43612</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>44508</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44747</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45033</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45161</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43370</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43410</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43412</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43412</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43427</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43438</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43441</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43476</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43476</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43486</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43493</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43509</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43514</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43528</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43530</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43538</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43542</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43545</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43553</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43564</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43572</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43595</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43598</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43599</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43599</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43621</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43627</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43641</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43641</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43647</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43655</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43656</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43656</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43656</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43656</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43656</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43690</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43691</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43698</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43698</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43698</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43699</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43703</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43710</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43710</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43711</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43711</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43711</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43712</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43718</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43721</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43726</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43766</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43769</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43784</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43806</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43817</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43859</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43860</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43861</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43887</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43887</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43892</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43899</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43914</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>43938</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43938</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43938</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>43948</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>43948</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>43979</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>43979</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>43984</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44013</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44018</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44018</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44028</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44048</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44062</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>44075</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>44078</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44096</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44096</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44097</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44098</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44116</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44125</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44130</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44152</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44156</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44169</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44186</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44228</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44242</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44257</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44271</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>44280</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44299</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44301</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44314</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44326</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44327</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44327</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44343</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44357</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44357</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44358</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44377</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>44386</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44421</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44423</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44461</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44461</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44466</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44484</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44503</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44533</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44550</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44550</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44566</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44602</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44602</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44606</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44606</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44606</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44607</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44621</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44623</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44624</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44624</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44671</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44700</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44701</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44705</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44705</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44728</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44728</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44739</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44739</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44743</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44743</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44747</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44812</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44824</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44851</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44853</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44853</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44859</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44860</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44861</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44861</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44872</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>44872</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44875</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44880</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44888</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44888</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44890</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44890</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44895</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44900</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44904</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44904</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44907</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44923</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44938</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44950</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44957</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>44959</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44959</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>44959</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>44959</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44962</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>44964</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44965</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>44981</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44985</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44992</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45009</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45020</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45021</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45028</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45028</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45028</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45033</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45033</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45033</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45033</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45034</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45041</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>45041</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>45062</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>45062</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45068</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>45068</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45076</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45076</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45086</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45086</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45097</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45107</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45124</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45126</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45126</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45126</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45146</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45146</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45159</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45159</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45159</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45161</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45167</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>45167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>45167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44939</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>43432</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43493</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>43612</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>44508</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44747</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45033</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45161</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43370</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43410</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43412</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43412</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43427</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43438</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43441</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43476</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43476</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43486</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43493</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43509</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43514</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43528</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43530</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43538</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43542</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43545</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43553</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43564</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43572</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43595</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43598</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43599</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43599</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43621</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43627</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43641</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43641</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43647</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43655</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43656</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43656</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43656</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43656</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43656</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43690</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43691</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43698</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43698</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43698</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43699</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43703</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43710</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43710</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43711</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43711</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43711</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43712</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43718</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43721</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43726</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43766</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43769</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43784</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43806</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43817</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43859</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43860</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43861</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43887</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43887</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43892</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43899</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43914</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>43938</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43938</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43938</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>43948</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>43948</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>43979</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>43979</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>43984</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44013</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44018</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44018</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44028</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44048</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44062</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>44075</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>44078</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44096</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44096</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44097</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44098</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44116</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44125</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44130</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44152</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44156</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44169</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44186</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44228</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44242</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44257</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44271</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>44280</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44299</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44301</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44314</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44326</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44327</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44327</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44343</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44357</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44357</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44358</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44377</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>44386</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44421</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44423</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44461</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44461</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44466</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44484</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44503</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44533</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44550</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44550</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44566</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44602</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44602</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44606</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44606</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44606</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44607</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44621</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44623</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44624</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44624</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44671</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44700</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44701</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44705</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44705</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44728</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44728</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44739</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44739</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44743</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44743</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44747</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44812</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44824</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44851</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44853</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44853</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44859</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44860</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44861</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44861</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44872</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>44872</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44875</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44880</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44888</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44888</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44890</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44890</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44895</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44900</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44904</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44904</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44907</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44923</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44938</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44950</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44957</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>44959</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44959</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>44959</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>44959</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44962</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>44964</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44965</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>44981</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44985</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44992</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45009</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45020</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45021</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45028</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45028</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45028</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45033</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45033</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45033</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45033</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45034</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45041</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>45041</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>45062</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>45062</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45068</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>45068</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45076</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45076</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45086</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45086</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45097</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45107</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45124</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45126</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45126</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45126</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45146</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45146</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45159</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45159</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45159</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45161</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45167</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>45167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>45167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44939</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>43432</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43493</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>43612</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>44508</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44747</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45033</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45161</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43370</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43410</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43412</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43412</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43427</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43438</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43441</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43476</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43476</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43486</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43493</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43509</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43514</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43528</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43530</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43538</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43542</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43545</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43553</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43564</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43572</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43595</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43598</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43599</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43599</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43621</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43627</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43641</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43641</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43647</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43655</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43656</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43656</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43656</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43656</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43656</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43690</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43691</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43698</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43698</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43698</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43699</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43703</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43710</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43710</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43711</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43711</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43711</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43712</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43718</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43721</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43726</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43766</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43769</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43784</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43806</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43817</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43859</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43860</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43861</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43887</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43887</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43892</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43899</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43914</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>43938</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43938</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43938</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>43948</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>43948</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>43979</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>43979</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>43984</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44013</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44018</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44018</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44028</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44048</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44062</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>44075</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>44078</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44096</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44096</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44097</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44098</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44116</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44125</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44130</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44152</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44156</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44169</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44186</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44228</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44242</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44257</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44271</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>44280</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44299</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44301</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44314</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44326</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44327</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44327</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44343</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44357</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44357</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44358</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44377</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>44386</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44421</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44423</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44461</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44461</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44466</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44484</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44503</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44533</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44550</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44550</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44566</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44602</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44602</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44606</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44606</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44606</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44607</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44621</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44623</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44624</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44624</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44671</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44700</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44701</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44705</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44705</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44728</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44728</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44739</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44739</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44743</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44743</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44747</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44812</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44824</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44851</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44853</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44853</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44859</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44860</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44861</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44861</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44872</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>44872</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44875</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44880</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44888</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44888</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44890</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44890</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44895</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44900</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44904</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44904</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44907</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44923</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44938</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44950</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44957</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>44959</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44959</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>44959</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>44959</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44962</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>44964</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44965</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>44981</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44985</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44992</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45009</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45020</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45021</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45028</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45028</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45028</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45033</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45033</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45033</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45033</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45034</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45041</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>45041</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>45062</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>45062</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45068</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>45068</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45076</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45076</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45086</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45086</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45097</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45107</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45124</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45126</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45126</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45126</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45146</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45146</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45159</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45159</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45159</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45161</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45167</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>45167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>45167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44939</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>43432</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43493</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>43612</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>44508</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44747</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45033</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45161</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43370</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43410</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43412</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43412</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43427</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43438</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43441</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43476</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43476</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43486</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43493</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43509</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43514</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43528</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43530</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43538</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43542</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43545</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43553</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43564</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43572</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43595</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43598</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43599</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43599</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43621</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43627</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43641</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43641</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43647</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43655</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43656</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43656</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43656</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43656</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43656</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43690</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43691</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43698</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43698</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43698</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43699</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43703</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43710</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43710</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43711</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43711</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43711</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43712</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43718</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43721</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43726</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43766</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43769</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43784</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43806</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43817</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43859</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43860</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43861</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43887</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43887</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43892</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43899</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43914</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>43938</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43938</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43938</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>43948</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>43948</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>43979</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>43979</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>43984</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44013</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44018</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44018</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44028</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44048</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44062</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>44075</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>44078</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44096</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44096</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44097</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44098</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44116</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44125</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44130</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44152</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44156</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44169</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44186</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44228</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44242</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44257</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44271</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>44280</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44299</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44301</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44314</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44326</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44327</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44327</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44343</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44357</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44357</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44358</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44377</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>44386</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44421</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44423</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44461</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44461</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44466</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44484</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44503</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44533</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44550</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44550</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44566</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44602</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44602</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44606</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44606</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44606</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44607</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44621</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44623</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44624</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44624</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44671</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44700</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44701</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44705</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44705</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44728</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44728</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44739</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44739</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44743</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44743</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44747</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44812</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44824</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44851</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44853</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44853</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44859</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44860</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44861</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44861</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44872</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>44872</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44875</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44880</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44888</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44888</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44890</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44890</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44895</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44900</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44904</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44904</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44907</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44923</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44938</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44950</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44957</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>44959</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44959</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>44959</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>44959</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44962</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>44964</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44965</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>44981</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44985</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44992</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45009</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45020</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45021</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45028</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45028</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45028</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45033</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45033</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45033</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45033</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45034</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45041</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>45041</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>45062</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>45062</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45068</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>45068</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45076</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45076</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45086</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45086</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45097</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45107</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45124</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45126</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45126</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45126</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45146</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45146</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45159</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45159</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45159</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45161</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45167</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>45167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>45167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44939</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>43432</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43493</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>43612</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>44508</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44747</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45033</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45161</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43370</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43410</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43412</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43412</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43427</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43438</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43441</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43476</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43476</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43486</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43493</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43509</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43514</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43528</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43530</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43538</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43542</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43545</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43553</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43564</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43572</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43595</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43598</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43599</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43599</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43621</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43627</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43641</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43641</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43647</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43655</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43656</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43656</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43656</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43656</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43656</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43690</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43691</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43698</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43698</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43698</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43699</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43703</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43710</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43710</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43711</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43711</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43711</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43712</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43718</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43721</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43726</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43766</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43769</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43784</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43806</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43817</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43859</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43860</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43861</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43887</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43887</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43892</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43899</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43914</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>43938</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43938</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43938</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>43948</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>43948</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>43979</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>43979</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>43984</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44013</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44018</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44018</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44028</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44048</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44062</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>44075</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>44078</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44096</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44096</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44097</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44098</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44116</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44125</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44130</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44152</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44156</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44169</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44186</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44228</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44242</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44257</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44271</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>44280</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44299</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44301</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44314</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44326</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44327</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44327</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44343</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44357</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44357</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44358</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44377</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>44386</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44421</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44423</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44461</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44461</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44466</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44484</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44503</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44533</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44550</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44550</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44566</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44602</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44602</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44606</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44606</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44606</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44607</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44621</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44623</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44624</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44624</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44671</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44700</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44701</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44705</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44705</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44728</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44728</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44739</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44739</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44743</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44743</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44747</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44812</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44824</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44851</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44853</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44853</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44859</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44860</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44861</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44861</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44872</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>44872</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44875</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44880</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44888</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44888</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44890</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44890</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44895</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44900</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44904</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44904</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44907</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44923</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44938</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44950</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44957</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>44959</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44959</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>44959</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>44959</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44962</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>44964</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44965</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>44981</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44985</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44992</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45009</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45020</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45021</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45028</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45028</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45028</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45033</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45033</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45033</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45033</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45034</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45041</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>45041</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>45062</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>45062</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45068</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>45068</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45076</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45076</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45086</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45086</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45097</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45107</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45124</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45126</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45126</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45126</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45146</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45146</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45159</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45159</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45159</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45161</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45167</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>45167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>45167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44939</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>43432</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43493</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>43612</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>44508</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44747</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45033</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45161</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43370</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43410</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43412</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43412</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43427</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43438</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43441</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43476</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43476</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43486</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43493</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43509</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43514</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43528</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43530</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43538</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43542</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43545</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43553</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43564</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43572</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43595</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43598</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43599</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43599</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43621</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43627</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43641</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43641</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43647</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43655</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43656</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43656</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43656</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43656</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43656</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43690</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43691</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43698</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43698</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43698</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43699</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43703</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43710</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43710</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43711</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43711</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43711</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43712</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43718</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43721</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43726</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43766</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43769</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43784</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43806</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43817</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43859</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43860</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43861</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43887</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43887</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43892</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43899</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43914</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>43938</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43938</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43938</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>43948</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>43948</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>43979</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>43979</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>43984</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44013</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44018</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44018</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44028</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44048</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44062</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>44075</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>44078</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44096</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44096</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44097</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44098</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44116</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44125</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44130</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44152</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44156</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44169</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44186</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44228</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44242</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44257</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44271</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>44280</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44299</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44301</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44314</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44326</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44327</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44327</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44343</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44357</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44357</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44358</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44377</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>44386</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44421</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44423</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44461</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44461</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44466</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44484</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44503</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44533</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44550</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44550</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44566</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44602</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44602</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44606</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44606</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44606</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44607</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44621</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44623</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44624</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44624</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44671</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44700</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44701</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44705</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44705</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44728</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44728</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44739</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44739</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44743</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44743</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44747</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44812</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44824</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44851</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44853</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44853</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44859</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44860</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44861</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44861</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44872</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>44872</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44875</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44880</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44888</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44888</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44890</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44890</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44895</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44900</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44904</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44904</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44907</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44923</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44938</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44950</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44957</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>44959</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44959</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>44959</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>44959</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44962</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>44964</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44965</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>44981</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44985</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44992</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45009</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45020</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45021</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45028</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45028</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45028</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45033</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45033</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45033</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45033</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45034</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45041</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>45041</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>45062</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>45062</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45068</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>45068</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45076</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45076</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45086</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45086</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45097</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45107</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45124</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45126</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45126</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45126</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45146</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45146</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45159</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45159</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45159</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45161</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45167</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>45167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>45167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44939</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>43432</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43493</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>43612</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>44508</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44747</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45033</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45161</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43370</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43410</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43412</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43412</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43427</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43438</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43441</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43476</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43476</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43486</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43493</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43509</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43514</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43528</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43530</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43538</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43542</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43545</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43553</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43564</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43572</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43595</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43598</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43599</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43599</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43621</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43627</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43641</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43641</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43647</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43655</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43656</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43656</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43656</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43656</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43656</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43690</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43691</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43698</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43698</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43698</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43699</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43703</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43710</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43710</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43711</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43711</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43711</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43712</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43718</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43721</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43726</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43766</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43769</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43784</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43806</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43817</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43859</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43860</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43861</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43887</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43887</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43892</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43899</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43914</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>43938</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43938</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43938</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>43948</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>43948</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>43979</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>43979</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>43984</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44013</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44018</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44018</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44028</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44048</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44062</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>44075</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>44078</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44096</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44096</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44097</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44098</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44116</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44125</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44130</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44152</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44156</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44169</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44186</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44228</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44242</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44257</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44271</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>44280</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44299</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44301</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44314</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44326</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44327</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44327</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44343</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44357</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44357</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44358</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44377</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>44386</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44421</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44423</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44461</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44461</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44466</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44484</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44503</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44533</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44550</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44550</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44566</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44602</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44602</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44606</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44606</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44606</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44607</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44621</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44623</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44624</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44624</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44671</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44700</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44701</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44705</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44705</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44728</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44728</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44739</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44739</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44743</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44743</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44747</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44812</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44824</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44851</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44853</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44853</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44859</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44860</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44861</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44861</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44872</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>44872</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44875</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44880</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44888</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44888</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44890</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44890</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44895</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44900</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44904</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44904</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44907</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44923</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44938</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44950</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44957</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>44959</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44959</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>44959</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>44959</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44962</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>44964</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44965</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>44981</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44985</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44992</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45009</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45020</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45021</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45028</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45028</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45028</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45033</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45033</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45033</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45033</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45034</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45041</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>45041</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>45062</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>45062</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45068</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>45068</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45076</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45076</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45086</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45086</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45097</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45107</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45124</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45126</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45126</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45126</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45146</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45146</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45159</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45159</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45159</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45161</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45167</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>45167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>45167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y321"/>
+  <dimension ref="A1:Y322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44939</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>43432</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43493</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>43612</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>44508</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44747</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45033</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45161</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43370</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43410</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43412</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43412</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43427</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43438</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43441</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43476</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43476</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43486</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43493</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43509</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43514</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43528</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43530</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43538</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43542</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43545</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43553</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43564</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43572</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43595</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43598</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43599</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43599</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43621</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43627</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43641</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43641</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43647</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43655</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43656</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43656</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43656</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43656</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43656</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43690</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43691</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43698</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43698</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43698</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43699</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43703</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43710</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43710</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43711</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43711</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43711</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43712</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43718</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43721</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43726</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43766</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43769</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43784</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43806</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43817</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43859</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43860</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43861</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43887</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43887</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43892</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43899</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43914</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>43938</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43938</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43938</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>43948</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>43948</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>43979</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>43979</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>43984</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44013</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44018</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44018</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44028</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44048</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44062</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>44075</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>44078</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44096</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44096</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44097</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44098</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44116</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44125</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44130</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44152</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44156</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44169</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44186</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44228</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44242</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44257</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44271</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>44280</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44299</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44301</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44314</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44326</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44327</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44327</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44343</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44357</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44357</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44358</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44377</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>44386</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44421</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44423</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44461</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44461</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44466</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44484</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44503</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44533</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44550</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44550</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44566</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44602</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44602</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44606</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44606</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44606</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44607</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44621</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44623</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44624</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44624</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44671</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44700</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44701</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44705</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44705</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44728</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44728</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44739</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44739</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44743</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44743</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44747</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44812</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44824</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44851</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44853</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44853</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44859</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44860</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44861</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44861</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44872</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>44872</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44875</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44880</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44888</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44888</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44890</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44890</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44895</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44900</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44904</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44904</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44907</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44923</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44938</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44950</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44957</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>44959</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44959</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>44959</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>44959</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44962</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>44964</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44965</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>44981</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44985</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44992</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45009</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45020</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45021</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45028</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45028</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45028</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45033</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45033</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45033</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45033</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45034</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45041</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>45041</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>45062</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>45062</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45068</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>45068</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45076</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45076</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45086</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45086</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45097</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45107</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45124</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45126</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45126</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45126</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45146</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45146</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45159</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45159</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45159</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45161</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45167</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>45167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
       </c>
       <c r="R320" s="2" t="inlineStr"/>
     </row>
-    <row r="321">
+    <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
           <t>A 39723-2023</t>
@@ -19427,7 +19427,7 @@
         <v>45167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19473,6 +19473,63 @@
         <v>0</v>
       </c>
       <c r="R321" s="2" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>A 42797-2023</t>
+        </is>
+      </c>
+      <c r="B322" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C322" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>ANEBY</t>
+        </is>
+      </c>
+      <c r="G322" t="n">
+        <v>2</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0</v>
+      </c>
+      <c r="L322" t="n">
+        <v>0</v>
+      </c>
+      <c r="M322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N322" t="n">
+        <v>0</v>
+      </c>
+      <c r="O322" t="n">
+        <v>0</v>
+      </c>
+      <c r="P322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>0</v>
+      </c>
+      <c r="R322" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y322"/>
+  <dimension ref="A1:Y323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44939</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -642,27 +642,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 2209-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 2209-2023.xlsx", "A 2209-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 2209-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 2209-2023.png", "A 2209-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 2209-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 2209-2023.docx", "A 2209-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 2209-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 2209-2023.docx", "A 2209-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 2209-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 2209-2023.docx", "A 2209-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 2209-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 2209-2023.docx", "A 2209-2023")</f>
         <v/>
       </c>
     </row>
@@ -676,7 +676,7 @@
         <v>43432</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -740,27 +740,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 67293-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 67293-2018.xlsx", "A 67293-2018")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 67293-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 67293-2018.png", "A 67293-2018")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 67293-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 67293-2018.docx", "A 67293-2018")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 67293-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 67293-2018.docx", "A 67293-2018")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 67293-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 67293-2018.docx", "A 67293-2018")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 67293-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 67293-2018.docx", "A 67293-2018")</f>
         <v/>
       </c>
     </row>
@@ -774,7 +774,7 @@
         <v>43493</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,27 +830,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 7941-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 7941-2019.xlsx", "A 7941-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 7941-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 7941-2019.png", "A 7941-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 7941-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 7941-2019.docx", "A 7941-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 7941-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 7941-2019.docx", "A 7941-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 7941-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 7941-2019.docx", "A 7941-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 7941-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 7941-2019.docx", "A 7941-2019")</f>
         <v/>
       </c>
     </row>
@@ -864,7 +864,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,31 +918,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 410-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 410-2022.xlsx", "A 410-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 410-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 410-2022.png", "A 410-2022")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/knärot/A 410-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/knärot/A 410-2022.png", "A 410-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 410-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 410-2022.docx", "A 410-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 410-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 410-2022.docx", "A 410-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 410-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 410-2022.docx", "A 410-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 410-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 410-2022.docx", "A 410-2022")</f>
         <v/>
       </c>
     </row>
@@ -956,7 +956,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,27 +1009,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 6747-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 6747-2022.xlsx", "A 6747-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 6747-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 6747-2022.png", "A 6747-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 6747-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 6747-2022.docx", "A 6747-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 6747-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 6747-2022.docx", "A 6747-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 6747-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 6747-2022.docx", "A 6747-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 6747-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 6747-2022.docx", "A 6747-2022")</f>
         <v/>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
         <v>44813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,27 +1096,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 38797-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 38797-2022.xlsx", "A 38797-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 38797-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 38797-2022.png", "A 38797-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 38797-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 38797-2022.docx", "A 38797-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 38797-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 38797-2022.docx", "A 38797-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 38797-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 38797-2022.docx", "A 38797-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 38797-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 38797-2022.docx", "A 38797-2022")</f>
         <v/>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
         <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,31 +1187,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 59975-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 59975-2020.xlsx", "A 59975-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 59975-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 59975-2020.png", "A 59975-2020")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/knärot/A 59975-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/knärot/A 59975-2020.png", "A 59975-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 59975-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 59975-2020.docx", "A 59975-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 59975-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 59975-2020.docx", "A 59975-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 59975-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 59975-2020.docx", "A 59975-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 59975-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 59975-2020.docx", "A 59975-2020")</f>
         <v/>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,27 +1277,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 17130-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 17130-2022.xlsx", "A 17130-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 17130-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 17130-2022.png", "A 17130-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 17130-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 17130-2022.docx", "A 17130-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 17130-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 17130-2022.docx", "A 17130-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 17130-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 17130-2022.docx", "A 17130-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 17130-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 17130-2022.docx", "A 17130-2022")</f>
         <v/>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,27 +1362,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 3856-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 3856-2019.xlsx", "A 3856-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 3856-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 3856-2019.png", "A 3856-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 3856-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 3856-2019.docx", "A 3856-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 3856-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 3856-2019.docx", "A 3856-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 3856-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 3856-2019.docx", "A 3856-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 3856-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 3856-2019.docx", "A 3856-2019")</f>
         <v/>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
         <v>43612</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,27 +1447,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 26583-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 26583-2019.xlsx", "A 26583-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 26583-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 26583-2019.png", "A 26583-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 26583-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 26583-2019.docx", "A 26583-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 26583-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 26583-2019.docx", "A 26583-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 26583-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 26583-2019.docx", "A 26583-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 26583-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 26583-2019.docx", "A 26583-2019")</f>
         <v/>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
         <v>44112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,27 +1532,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 51106-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 51106-2020.xlsx", "A 51106-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 51106-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 51106-2020.png", "A 51106-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 51106-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 51106-2020.docx", "A 51106-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 51106-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 51106-2020.docx", "A 51106-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 51106-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 51106-2020.docx", "A 51106-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 51106-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 51106-2020.docx", "A 51106-2020")</f>
         <v/>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
         <v>44508</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,27 +1617,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 63467-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 63467-2021.xlsx", "A 63467-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 63467-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 63467-2021.png", "A 63467-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 63467-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 63467-2021.docx", "A 63467-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 63467-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 63467-2021.docx", "A 63467-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 63467-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 63467-2021.docx", "A 63467-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 63467-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 63467-2021.docx", "A 63467-2021")</f>
         <v/>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
         <v>44565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,27 +1702,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 412-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 412-2022.xlsx", "A 412-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 412-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 412-2022.png", "A 412-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 412-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 412-2022.docx", "A 412-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 412-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 412-2022.docx", "A 412-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 412-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 412-2022.docx", "A 412-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 412-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 412-2022.docx", "A 412-2022")</f>
         <v/>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
         <v>44747</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,27 +1787,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 28452-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 28452-2022.xlsx", "A 28452-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 28452-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 28452-2022.png", "A 28452-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 28452-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 28452-2022.docx", "A 28452-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 28452-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 28452-2022.docx", "A 28452-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 28452-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 28452-2022.docx", "A 28452-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 28452-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 28452-2022.docx", "A 28452-2022")</f>
         <v/>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
         <v>45033</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1872,27 +1872,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 16944-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 16944-2023.xlsx", "A 16944-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 16944-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 16944-2023.png", "A 16944-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 16944-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 16944-2023.docx", "A 16944-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 16944-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 16944-2023.docx", "A 16944-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 16944-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 16944-2023.docx", "A 16944-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 16944-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 16944-2023.docx", "A 16944-2023")</f>
         <v/>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
         <v>45161</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1957,27 +1957,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 38338-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/artfynd/A 38338-2023.xlsx", "A 38338-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 38338-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/kartor/A 38338-2023.png", "A 38338-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 38338-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomål/A 38338-2023.docx", "A 38338-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 38338-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/klagomålsmail/A 38338-2023.docx", "A 38338-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 38338-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsyn/A 38338-2023.docx", "A 38338-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 38338-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANEBY/tillsynsmail/A 38338-2023.docx", "A 38338-2023")</f>
         <v/>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43370</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43410</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43412</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43412</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43427</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43438</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43441</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43476</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43476</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43486</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43493</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43509</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43514</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43528</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43530</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43538</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43542</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43545</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43553</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43564</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43572</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43595</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43598</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43599</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43599</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43621</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43627</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43641</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43641</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43647</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43655</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43656</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43656</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43656</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43656</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43656</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43690</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43691</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43698</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43698</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43698</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43699</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43703</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43710</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43710</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43711</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43711</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43711</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43712</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43718</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43721</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43726</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43766</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43769</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43784</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43806</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43817</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43859</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43860</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43861</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43887</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43887</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43892</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43899</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43914</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>43938</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43938</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43938</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>43948</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>43948</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>43979</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>43979</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>43984</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44013</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44018</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44018</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44028</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44048</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44062</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>44075</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>44078</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44096</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44096</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44097</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44098</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44116</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44125</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44130</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44152</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44156</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44169</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44186</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44228</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44242</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44257</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44271</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>44280</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44299</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44301</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44314</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44326</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44327</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44327</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44343</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44357</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44357</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44358</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44377</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>44386</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44421</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44423</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44461</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44461</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44466</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44484</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44503</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44533</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44550</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44550</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44566</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44602</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44602</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44606</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44606</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44606</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44607</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44621</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44623</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44624</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44624</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44671</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44700</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44701</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44705</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44705</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44728</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44728</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44739</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44739</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44743</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44743</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44747</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44812</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44824</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44851</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44853</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44853</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44859</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44860</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44861</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44861</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44872</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>44872</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44875</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44880</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44888</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44888</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44890</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44890</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44895</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44900</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44904</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44904</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44907</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44923</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44938</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44950</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44957</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>44959</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44959</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>44959</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>44959</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44962</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>44964</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44965</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>44981</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44985</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44992</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45009</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45020</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45021</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45028</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45028</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45028</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45033</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45033</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45033</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45033</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45034</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45041</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>45041</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>45062</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>45062</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45068</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>45068</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45076</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45076</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45086</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45086</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45097</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45107</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45124</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45126</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45126</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45126</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45146</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45146</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45159</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45159</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45159</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45161</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45167</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>45167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>45167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
       </c>
       <c r="R321" s="2" t="inlineStr"/>
     </row>
-    <row r="322">
+    <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
           <t>A 42797-2023</t>
@@ -19484,7 +19484,7 @@
         <v>45182</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19530,6 +19530,63 @@
         <v>0</v>
       </c>
       <c r="R322" s="2" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>A 43485-2023</t>
+        </is>
+      </c>
+      <c r="B323" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C323" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>ANEBY</t>
+        </is>
+      </c>
+      <c r="G323" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0</v>
+      </c>
+      <c r="L323" t="n">
+        <v>0</v>
+      </c>
+      <c r="M323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N323" t="n">
+        <v>0</v>
+      </c>
+      <c r="O323" t="n">
+        <v>0</v>
+      </c>
+      <c r="P323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>0</v>
+      </c>
+      <c r="R323" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44939</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>43432</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43493</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>43612</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>44508</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44747</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45033</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45161</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43370</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43410</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43412</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43412</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43427</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43438</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43441</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43476</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43476</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43486</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43493</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43509</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43514</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43528</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43530</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43538</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43542</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43545</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43553</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43564</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43572</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43595</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43598</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43599</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43599</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43621</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43627</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43641</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43641</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43647</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43655</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43656</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43656</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43656</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43656</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43656</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43690</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43691</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43698</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43698</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43698</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43699</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43703</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43710</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43710</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43711</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43711</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43711</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43712</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43718</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43721</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43726</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43766</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43769</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43784</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43806</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43817</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43859</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43860</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43861</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43887</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43887</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43892</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43899</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43914</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>43938</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43938</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43938</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>43948</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>43948</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>43979</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>43979</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>43984</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44013</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44018</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44018</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44028</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44048</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44062</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>44075</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>44078</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44096</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44096</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44097</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44098</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44116</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44125</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44130</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44152</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44156</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44169</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44186</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44228</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44242</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44257</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44271</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>44280</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44299</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44301</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44314</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44326</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44327</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44327</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44343</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44357</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44357</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44358</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44377</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>44386</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44421</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44423</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44461</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44461</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44466</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44484</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44503</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44533</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44550</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44550</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44566</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44602</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44602</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44606</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44606</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44606</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44607</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44621</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44623</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44624</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44624</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44671</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44700</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44701</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44705</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44705</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44728</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44728</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44739</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44739</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44743</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44743</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44747</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44812</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44824</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44851</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44853</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44853</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44859</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44860</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44861</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44861</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44872</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>44872</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44875</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44880</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44888</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44888</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44890</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44890</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44895</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44900</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44904</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44904</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44907</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44923</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44938</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44950</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44957</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>44959</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44959</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>44959</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>44959</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44962</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>44964</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44965</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>44981</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44985</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44992</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45009</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45020</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45021</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45028</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45028</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45028</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45033</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45033</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45033</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45033</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45034</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45041</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>45041</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>45062</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>45062</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45068</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>45068</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45076</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45076</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45086</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45086</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45097</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45107</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45124</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45126</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45126</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45126</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45146</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45146</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45159</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45159</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45159</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45161</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45167</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>45167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>45167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>45182</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>45184</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44939</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>43432</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43493</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>43612</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>44508</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44747</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45033</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45161</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43370</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43410</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43412</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43412</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43427</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43438</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43441</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43476</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43476</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43486</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43493</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43509</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43514</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43528</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43530</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43538</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43542</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43545</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43553</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43564</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43572</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43595</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43598</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43599</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43599</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43621</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43627</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43641</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43641</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43647</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43655</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43656</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43656</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43656</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43656</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43656</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43690</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43691</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43698</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43698</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43698</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43699</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43703</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43710</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43710</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43711</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43711</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43711</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43712</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43718</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43721</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43726</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43766</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43769</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43784</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43806</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43817</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43859</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43860</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43861</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43887</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43887</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43892</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43899</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43914</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>43938</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43938</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43938</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>43948</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>43948</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>43979</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>43979</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>43984</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44013</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44018</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44018</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44028</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44048</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44062</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>44075</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>44078</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44096</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44096</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44097</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44098</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44116</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44125</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44130</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44152</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44156</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44169</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44186</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44228</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44242</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44257</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44271</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>44280</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44299</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44301</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44314</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44326</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44327</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44327</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44343</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44357</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44357</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44358</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44377</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>44386</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44421</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44423</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44461</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44461</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44466</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44484</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44503</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44533</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44550</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44550</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44566</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44602</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44602</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44606</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44606</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44606</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44607</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44621</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44623</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44624</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44624</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44671</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44700</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44701</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44705</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44705</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44728</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44728</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44739</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44739</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44743</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44743</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44747</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44812</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44824</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44851</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44853</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44853</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44859</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44860</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44861</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44861</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44872</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>44872</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44875</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44880</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44888</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44888</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44890</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44890</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44895</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44900</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44904</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44904</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44907</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44923</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44938</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44950</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44957</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>44959</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44959</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>44959</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>44959</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44962</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>44964</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44965</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>44981</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44985</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44992</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45009</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45020</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45021</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45028</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45028</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45028</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45033</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45033</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45033</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45033</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45034</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45041</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>45041</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>45062</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>45062</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45068</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>45068</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45076</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45076</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45086</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45086</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45097</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45107</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45124</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45126</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45126</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45126</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45146</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45146</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45159</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45159</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45159</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45161</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45167</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>45167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>45167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>45182</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>45184</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44939</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>43432</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43493</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>43612</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>44508</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44747</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45033</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45161</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43370</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43410</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43412</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43412</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43427</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43438</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43441</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43476</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43476</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43486</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43493</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43509</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43514</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43528</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43530</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43538</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43542</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43545</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43553</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43564</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43572</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43595</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43598</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43599</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43599</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43621</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43627</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43641</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43641</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43647</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43655</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43656</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43656</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43656</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43656</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43656</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43690</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43691</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43698</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43698</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43698</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43699</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43703</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43710</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43710</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43711</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43711</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43711</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43712</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43718</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43721</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43726</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43766</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43769</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43784</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43806</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43817</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43859</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43860</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43861</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43887</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43887</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43892</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43899</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43914</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>43938</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43938</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43938</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>43948</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>43948</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>43979</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>43979</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>43984</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44013</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44018</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44018</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44028</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44048</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44062</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>44075</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>44078</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44096</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44096</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44097</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44098</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44116</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44125</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44130</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44152</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44156</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44169</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44186</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44228</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44242</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44257</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44271</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>44280</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44299</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44301</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44314</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44326</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44327</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44327</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44343</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44357</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44357</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44358</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44377</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>44386</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44421</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44423</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44461</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44461</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44466</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44484</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44503</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44533</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44550</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44550</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44566</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44602</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44602</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44606</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44606</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44606</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44607</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44621</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44623</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44624</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44624</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44671</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44700</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44701</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44705</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44705</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44728</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44728</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44739</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44739</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44743</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44743</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44747</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44812</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44824</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44851</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44853</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44853</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44859</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44860</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44861</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44861</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44872</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>44872</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44875</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44880</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44888</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44888</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44890</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44890</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44895</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44900</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44904</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44904</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44907</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44923</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44938</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44950</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44957</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>44959</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44959</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>44959</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>44959</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44962</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>44964</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44965</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>44981</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44985</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44992</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45009</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45020</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45021</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45028</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45028</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45028</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45033</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45033</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45033</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45033</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45034</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45041</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>45041</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>45062</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>45062</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45068</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>45068</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45076</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45076</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45086</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45086</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45097</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45107</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45124</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45126</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45126</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45126</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45146</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45146</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45159</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45159</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45159</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45161</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45167</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>45167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>45167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>45182</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>45184</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44939</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>43432</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43493</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>43612</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>44508</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44747</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45033</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45161</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43370</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43410</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43412</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43412</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43427</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43438</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43441</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43476</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43476</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43486</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43493</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43509</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43514</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43528</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43530</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43538</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43542</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43545</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43553</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43564</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43572</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43595</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43598</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43599</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43599</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43621</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43627</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43641</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43641</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43647</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43655</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43656</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43656</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43656</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43656</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43656</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43690</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43691</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43698</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43698</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43698</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43699</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43703</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43710</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43710</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43711</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43711</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43711</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43712</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43718</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43721</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43726</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43766</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43769</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43784</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43806</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43817</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43859</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43860</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43861</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43887</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43887</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43892</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43899</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43914</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>43938</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43938</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43938</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>43948</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>43948</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>43979</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>43979</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>43984</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44013</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44018</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44018</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44028</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44048</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44062</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>44075</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>44078</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44096</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44096</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44097</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44098</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44116</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44125</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44130</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44152</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44156</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44169</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44186</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44228</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44242</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44257</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44271</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>44280</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44299</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44301</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44314</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44326</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44327</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44327</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44343</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44357</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44357</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44358</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44377</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>44386</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44421</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44423</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44461</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44461</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44466</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44484</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44503</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44533</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44550</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44550</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44566</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44602</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44602</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44606</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44606</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44606</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44607</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44621</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44623</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44624</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44624</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44671</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44700</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44701</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44705</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44705</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44728</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44728</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44739</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44739</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44743</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44743</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44747</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44812</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44824</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44851</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44853</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44853</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44859</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44860</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44861</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44861</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44872</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>44872</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44875</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44880</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44888</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44888</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44890</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44890</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44895</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44900</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44904</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44904</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44907</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44923</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44938</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44950</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44957</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>44959</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44959</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>44959</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>44959</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44962</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>44964</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44965</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>44981</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44985</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44992</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45009</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45020</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45021</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45028</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45028</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45028</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45033</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45033</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45033</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45033</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45034</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45041</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>45041</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>45062</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>45062</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45068</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>45068</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45076</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45076</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45086</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45086</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45097</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45107</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45124</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45126</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45126</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45126</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45146</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45146</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45159</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45159</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45159</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45161</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45167</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>45167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>45167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>45182</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>45184</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y323"/>
+  <dimension ref="A1:Y325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44939</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>43432</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43493</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>43612</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>44508</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44747</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45033</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45161</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43370</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43410</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43412</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43412</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43427</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43438</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43441</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43476</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43476</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43486</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43493</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43509</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43514</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43528</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43530</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43538</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43542</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43545</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43553</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43564</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43572</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43595</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43598</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43599</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43599</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43621</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43627</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43641</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43641</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43647</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43655</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43656</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43656</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43656</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43656</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43656</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43690</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43691</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43698</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43698</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43698</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43699</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43703</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43710</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43710</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43711</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43711</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43711</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43712</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43718</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43721</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43726</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43766</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43769</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43784</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43806</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43817</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43859</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43860</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43861</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43887</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43887</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43892</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43899</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43914</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>43938</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43938</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43938</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>43948</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>43948</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>43979</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>43979</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>43984</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44013</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44018</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44018</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44028</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44048</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44062</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>44075</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>44078</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44096</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44096</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44097</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44098</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44116</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44125</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44130</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44152</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44156</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44169</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44186</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44228</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44242</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44257</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44271</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>44280</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44299</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44301</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44314</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44326</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44327</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44327</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44343</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44357</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44357</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44358</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44377</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>44386</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44421</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44423</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44461</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44461</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44466</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44484</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44503</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44533</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44550</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44550</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44566</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44602</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44602</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44606</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44606</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44606</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44607</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44621</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44623</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44624</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44624</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44671</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44700</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44701</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44705</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44705</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44728</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44728</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44739</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44739</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44743</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44743</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44747</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44812</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44824</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44851</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44853</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44853</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44859</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44860</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44861</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44861</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44872</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>44872</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44875</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44880</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44888</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44888</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44890</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44890</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44895</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44900</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44904</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44904</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44907</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44923</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44938</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44950</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44957</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>44959</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44959</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>44959</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>44959</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44962</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>44964</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44965</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>44981</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44985</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44992</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45009</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45020</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45021</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45028</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45028</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45028</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45033</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45033</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45033</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45033</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45034</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45041</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>45041</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>45062</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>45062</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45068</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>45068</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45076</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45076</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45086</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45086</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45097</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45107</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45124</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45126</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45126</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45126</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45146</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45146</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45159</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45159</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45159</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45161</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45167</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>45167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>45167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>45182</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
       </c>
       <c r="R322" s="2" t="inlineStr"/>
     </row>
-    <row r="323">
+    <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
           <t>A 43485-2023</t>
@@ -19541,7 +19541,7 @@
         <v>45184</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19587,6 +19587,130 @@
         <v>0</v>
       </c>
       <c r="R323" s="2" t="inlineStr"/>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>A 46784-2023</t>
+        </is>
+      </c>
+      <c r="B324" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C324" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>ANEBY</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G324" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0</v>
+      </c>
+      <c r="L324" t="n">
+        <v>0</v>
+      </c>
+      <c r="M324" t="n">
+        <v>0</v>
+      </c>
+      <c r="N324" t="n">
+        <v>0</v>
+      </c>
+      <c r="O324" t="n">
+        <v>0</v>
+      </c>
+      <c r="P324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>0</v>
+      </c>
+      <c r="R324" s="2" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>A 46783-2023</t>
+        </is>
+      </c>
+      <c r="B325" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C325" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>ANEBY</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G325" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0</v>
+      </c>
+      <c r="L325" t="n">
+        <v>0</v>
+      </c>
+      <c r="M325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N325" t="n">
+        <v>0</v>
+      </c>
+      <c r="O325" t="n">
+        <v>0</v>
+      </c>
+      <c r="P325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>0</v>
+      </c>
+      <c r="R325" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y325"/>
+  <dimension ref="A1:Y327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44939</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>43432</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43493</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>43612</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>44508</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44747</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45033</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45161</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43370</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43410</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43412</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43412</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43427</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43438</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43441</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43476</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43476</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43486</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43493</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43509</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43514</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43528</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43530</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43538</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43542</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43545</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43553</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43564</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43572</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43595</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43598</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43599</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43599</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43621</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43627</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43641</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43641</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43647</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43655</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43656</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43656</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43656</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43656</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43656</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43690</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43691</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43698</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43698</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43698</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43699</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43703</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43710</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43710</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43711</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43711</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43711</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43712</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43718</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43721</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43726</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43766</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43769</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43784</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43806</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43817</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43859</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43860</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43861</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43887</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43887</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43892</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43899</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43914</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>43938</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43938</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43938</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>43948</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>43948</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>43979</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>43979</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>43984</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44013</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44018</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44018</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44028</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44048</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44062</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>44075</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>44078</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44096</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44096</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44097</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44098</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44116</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44125</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44130</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44152</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44156</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44169</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44186</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44228</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44242</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44257</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44271</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>44280</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44299</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44301</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44314</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44326</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44327</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44327</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44343</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44357</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44357</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44358</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44377</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>44386</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44421</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44423</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44461</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44461</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44466</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44484</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44503</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44533</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44550</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44550</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44566</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44602</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44602</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44606</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44606</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44606</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44607</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44621</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44623</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44624</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44624</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44671</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44700</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44701</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44705</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44705</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44728</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44728</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44739</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44739</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44743</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44743</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44747</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44812</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44824</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44851</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44853</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44853</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44859</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44860</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44861</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44861</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44872</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>44872</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44875</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44880</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44888</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44888</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44890</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44890</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44895</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44900</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44904</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44904</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44907</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44923</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44938</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44950</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44957</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>44959</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44959</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>44959</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>44959</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44962</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>44964</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44965</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>44981</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44985</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44992</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45009</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45020</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45021</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45028</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45028</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45028</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45033</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45033</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45033</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45033</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45034</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45041</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>45041</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>45062</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>45062</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45068</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>45068</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45076</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45076</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45086</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45086</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45097</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45107</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45124</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45126</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45126</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45126</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45146</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45146</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45159</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45159</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45159</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45161</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45167</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>45167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>45167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>45182</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>45184</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>45198</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
       </c>
       <c r="R324" s="2" t="inlineStr"/>
     </row>
-    <row r="325">
+    <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
           <t>A 46783-2023</t>
@@ -19660,7 +19660,7 @@
         <v>45198</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19711,6 +19711,130 @@
         <v>0</v>
       </c>
       <c r="R325" s="2" t="inlineStr"/>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>A 47300-2023</t>
+        </is>
+      </c>
+      <c r="B326" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C326" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>ANEBY</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G326" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0</v>
+      </c>
+      <c r="L326" t="n">
+        <v>0</v>
+      </c>
+      <c r="M326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N326" t="n">
+        <v>0</v>
+      </c>
+      <c r="O326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R326" s="2" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>A 47296-2023</t>
+        </is>
+      </c>
+      <c r="B327" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C327" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>ANEBY</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G327" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0</v>
+      </c>
+      <c r="L327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N327" t="n">
+        <v>0</v>
+      </c>
+      <c r="O327" t="n">
+        <v>0</v>
+      </c>
+      <c r="P327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R327" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y327"/>
+  <dimension ref="A1:Y332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44939</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>43432</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43493</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>43612</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>44508</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44747</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45033</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45161</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43370</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43410</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43412</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43412</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43427</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43438</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43441</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43476</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43476</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43486</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43493</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43509</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43514</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43528</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43530</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43538</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43542</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43545</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43553</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43564</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43572</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43595</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43598</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43599</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43599</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43621</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43627</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43641</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43641</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43647</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43655</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43656</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43656</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43656</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43656</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43656</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43690</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43691</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43698</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43698</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43698</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43699</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43703</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43710</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43710</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43711</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43711</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43711</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43712</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43718</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43721</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43726</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43766</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43769</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43784</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43806</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43817</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43859</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43860</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43861</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43887</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43887</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43892</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43899</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43914</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>43938</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43938</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43938</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>43948</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>43948</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>43979</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>43979</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>43984</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44013</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44018</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44018</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44028</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44048</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44062</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>44075</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>44078</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44096</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44096</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44097</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44098</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44116</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44125</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44130</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44152</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44156</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44169</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44186</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44228</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44242</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44257</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44271</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>44280</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44299</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44301</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44314</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44326</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44327</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44327</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44343</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44357</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44357</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44358</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44377</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>44386</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44421</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44423</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44461</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44461</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44466</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44484</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44503</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44533</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44550</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44550</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44566</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44602</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44602</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44606</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44606</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44606</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44607</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44621</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44623</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44624</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44624</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44671</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44700</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44701</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44705</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44705</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44728</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44728</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44739</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44739</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44743</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44743</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44747</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44812</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44824</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44851</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44853</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44853</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44859</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44860</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44861</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44861</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44872</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>44872</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44875</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44880</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44888</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44888</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44890</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44890</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44895</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44900</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44904</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44904</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44907</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44923</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44938</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44950</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44957</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>44959</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44959</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>44959</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>44959</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44962</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>44964</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44965</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>44981</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44985</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44992</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45009</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45020</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45021</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45028</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45028</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45028</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45033</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45033</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45033</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45033</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45034</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45041</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>45041</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>45062</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>45062</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45068</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>45068</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45076</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45076</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45086</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45086</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45097</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45107</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45124</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45126</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45126</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45126</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45146</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45146</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45159</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45159</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45159</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45161</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45167</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>45167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>45167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>45182</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>45184</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>45198</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>45198</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19715,14 +19715,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 47300-2023</t>
+          <t>A 47296-2023</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
         <v>45202</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19774,17 +19774,17 @@
       </c>
       <c r="R326" s="2" t="inlineStr"/>
     </row>
-    <row r="327">
+    <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 47296-2023</t>
+          <t>A 47305-2023</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
         <v>45202</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19835,6 +19835,316 @@
         <v>0</v>
       </c>
       <c r="R327" s="2" t="inlineStr"/>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>A 47300-2023</t>
+        </is>
+      </c>
+      <c r="B328" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C328" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>ANEBY</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G328" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0</v>
+      </c>
+      <c r="L328" t="n">
+        <v>0</v>
+      </c>
+      <c r="M328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N328" t="n">
+        <v>0</v>
+      </c>
+      <c r="O328" t="n">
+        <v>0</v>
+      </c>
+      <c r="P328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R328" s="2" t="inlineStr"/>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>A 47309-2023</t>
+        </is>
+      </c>
+      <c r="B329" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C329" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>ANEBY</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G329" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0</v>
+      </c>
+      <c r="L329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N329" t="n">
+        <v>0</v>
+      </c>
+      <c r="O329" t="n">
+        <v>0</v>
+      </c>
+      <c r="P329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R329" s="2" t="inlineStr"/>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>A 47307-2023</t>
+        </is>
+      </c>
+      <c r="B330" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C330" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>ANEBY</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G330" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N330" t="n">
+        <v>0</v>
+      </c>
+      <c r="O330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R330" s="2" t="inlineStr"/>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>A 47303-2023</t>
+        </is>
+      </c>
+      <c r="B331" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C331" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>ANEBY</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G331" t="n">
+        <v>2</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N331" t="n">
+        <v>0</v>
+      </c>
+      <c r="O331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R331" s="2" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>A 47310-2023</t>
+        </is>
+      </c>
+      <c r="B332" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C332" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>ANEBY</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G332" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N332" t="n">
+        <v>0</v>
+      </c>
+      <c r="O332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R332" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44939</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>43432</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43493</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>43612</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>44508</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44747</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45033</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45161</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43370</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43410</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43412</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43412</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43427</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43438</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43441</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43476</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43476</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43486</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43493</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43509</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43514</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43528</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43530</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43538</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43542</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43545</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43553</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43564</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43572</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43595</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43598</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43599</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43599</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43621</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43627</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43641</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43641</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43647</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43655</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43656</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43656</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43656</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43656</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43656</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43690</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43691</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43698</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43698</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43698</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43699</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43703</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43710</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43710</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43711</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43711</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43711</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43712</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43718</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43721</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43726</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43766</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43769</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43784</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43806</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43817</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43859</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43860</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43861</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43887</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43887</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43892</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43899</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43914</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>43938</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43938</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43938</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>43948</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>43948</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>43979</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>43979</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>43984</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44013</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44018</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44018</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44028</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44048</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44062</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>44075</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>44078</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44096</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44096</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44097</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44098</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44116</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44125</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44130</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44152</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44156</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44169</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44186</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44228</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44242</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44257</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44271</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>44280</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44299</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44301</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44314</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44326</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44327</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44327</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44343</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44357</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44357</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44358</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44377</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>44386</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44421</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44423</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44461</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44461</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44466</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44484</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44503</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44533</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44550</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44550</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44566</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44602</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44602</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44606</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44606</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44606</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44607</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44621</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44623</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44624</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44624</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44671</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44700</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44701</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44705</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44705</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44728</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44728</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44739</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44739</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44743</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44743</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44747</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44812</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44824</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44851</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44853</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44853</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44859</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44860</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44861</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44861</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44872</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>44872</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44875</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44880</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44888</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44888</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44890</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44890</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44895</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44900</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44904</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44904</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44907</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44923</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44938</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44950</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44957</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>44959</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44959</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>44959</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>44959</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44962</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>44964</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44965</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>44981</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44985</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44992</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45009</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45020</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45021</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45028</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45028</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45028</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45033</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45033</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45033</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45033</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45034</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45041</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>45041</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>45062</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>45062</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45068</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>45068</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45076</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45076</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45086</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45086</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45097</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45107</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45124</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45126</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45126</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45126</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45146</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45146</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45159</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45159</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45159</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45161</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45167</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>45167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>45167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>45182</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>45184</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>45198</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>45198</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19722,7 +19722,7 @@
         <v>45202</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19784,7 +19784,7 @@
         <v>45202</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>45202</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19908,7 +19908,7 @@
         <v>45202</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19970,7 +19970,7 @@
         <v>45202</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>45202</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>45202</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44939</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>43432</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43493</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>43612</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>44508</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44747</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45033</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45161</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43370</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43410</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43412</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43412</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43427</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43438</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43441</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43476</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43476</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43486</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43493</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43509</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43514</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43528</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43530</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43538</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43542</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43545</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43553</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43564</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43572</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43595</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43598</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43599</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43599</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43621</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43627</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43641</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43641</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43647</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43655</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43656</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43656</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43656</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43656</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43656</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43690</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43691</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43698</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43698</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43698</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43699</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43703</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43710</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43710</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43711</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43711</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43711</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43712</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43718</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43721</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43726</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43766</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43769</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43784</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43806</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43817</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43859</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43860</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43861</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43887</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43887</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43892</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43899</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43914</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>43938</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43938</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43938</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>43948</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>43948</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>43979</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>43979</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>43984</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44013</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44018</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44018</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44028</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44048</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44062</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>44075</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>44078</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44096</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44096</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44097</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44098</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44116</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44125</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44130</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44152</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44156</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44169</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44186</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44228</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44242</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44257</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44271</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>44280</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44299</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44301</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44314</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44326</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44327</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44327</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44343</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44357</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44357</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44358</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44377</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>44386</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44421</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44423</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44461</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44461</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44466</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44484</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44503</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44533</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44550</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44550</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44566</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44602</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44602</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44606</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44606</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44606</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44607</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44621</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44623</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44624</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44624</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44671</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44700</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44701</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44705</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44705</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44728</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44728</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44739</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44739</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44743</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44743</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44747</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44812</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44824</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44851</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44853</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44853</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44859</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44860</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44861</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44861</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44872</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>44872</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44875</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44880</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44888</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44888</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44890</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44890</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44895</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44900</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44904</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44904</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44907</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44923</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44938</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44950</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44957</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>44959</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44959</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>44959</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>44959</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44962</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>44964</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44965</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>44981</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44985</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44992</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45009</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45020</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45021</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45028</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45028</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45028</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45033</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45033</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45033</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45033</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45034</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45041</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>45041</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>45062</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>45062</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45068</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>45068</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45076</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45076</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45086</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45086</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45097</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45107</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45124</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45126</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45126</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45126</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45146</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45146</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45159</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45159</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45159</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45161</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45167</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>45167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>45167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>45182</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>45184</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>45198</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>45198</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19722,7 +19722,7 @@
         <v>45202</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19784,7 +19784,7 @@
         <v>45202</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>45202</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19908,7 +19908,7 @@
         <v>45202</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19970,7 +19970,7 @@
         <v>45202</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>45202</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>45202</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44939</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>43432</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43493</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44813</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>43612</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>44508</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44747</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45033</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45161</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43370</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43410</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43412</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43412</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43427</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43438</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43441</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43476</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43476</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43486</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43493</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43509</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43514</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43528</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43530</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43538</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43538</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43542</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43545</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43553</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43564</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43572</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43595</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43598</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43599</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43599</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43621</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43627</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43641</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43641</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43647</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43655</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43656</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43656</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43656</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43656</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43656</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43690</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43691</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43698</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43698</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43698</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43699</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43703</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43710</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43710</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43711</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43711</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43711</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43712</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43718</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43721</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43726</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43766</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43769</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43784</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43806</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43817</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43859</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43860</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43861</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43866</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43887</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43887</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43892</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43899</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43914</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>43938</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43938</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43938</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>43948</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>43948</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>43979</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>43979</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>43984</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44013</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44018</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44018</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44028</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44028</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44048</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44060</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44062</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>44075</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>44078</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44096</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44096</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44097</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44098</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44116</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44125</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>44130</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>44152</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44156</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44169</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44186</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44228</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44242</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44257</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44271</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>44280</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44299</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44301</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44314</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44326</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44327</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44327</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44343</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44357</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44357</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44358</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44377</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>44386</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44421</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44423</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44461</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44461</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44466</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44484</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44503</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44532</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44533</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44550</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44550</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44566</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44602</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44602</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44606</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44606</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44606</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44607</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44621</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44623</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44624</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44624</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44671</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44700</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44701</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44705</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44705</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44728</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44728</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44739</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44739</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44743</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44743</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44747</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44812</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44824</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44851</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44853</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44853</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44859</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44860</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44861</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44861</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44872</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>44872</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44875</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44880</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44888</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44888</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44890</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44890</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44895</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44900</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44904</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44904</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44907</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44923</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44938</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44950</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44957</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>44959</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44959</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>44959</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>44959</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44962</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>44964</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44965</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>44981</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44985</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44992</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45009</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45020</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45021</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45028</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45028</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45028</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45033</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45033</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45033</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45033</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45034</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45041</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>45041</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>45062</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>45062</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45068</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>45068</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45076</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45076</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45086</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45086</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45097</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45107</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45124</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45124</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45126</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45126</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45126</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45146</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45146</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45159</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45159</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45159</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45161</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45161</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45167</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>45167</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>45167</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>45182</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>45184</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>45198</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>45198</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19722,7 +19722,7 @@
         <v>45202</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19784,7 +19784,7 @@
         <v>45202</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>45202</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19908,7 +19908,7 @@
         <v>45202</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19970,7 +19970,7 @@
         <v>45202</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>45202</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>45202</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
